--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
@@ -543,10 +543,10 @@
         <v>8.021466</v>
       </c>
       <c r="I2">
-        <v>0.8002273347603108</v>
+        <v>0.7104886604324562</v>
       </c>
       <c r="J2">
-        <v>0.8002273347603108</v>
+        <v>0.7104886604324562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N2">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q2">
-        <v>10.28836348619</v>
+        <v>14.100892300248</v>
       </c>
       <c r="R2">
-        <v>92.59527137571</v>
+        <v>126.908030702232</v>
       </c>
       <c r="S2">
-        <v>0.03175383682329833</v>
+        <v>0.03629326714849884</v>
       </c>
       <c r="T2">
-        <v>0.03175383682329833</v>
+        <v>0.03629326714849884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>8.021466</v>
       </c>
       <c r="I3">
-        <v>0.8002273347603108</v>
+        <v>0.7104886604324562</v>
       </c>
       <c r="J3">
-        <v>0.8002273347603108</v>
+        <v>0.7104886604324562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>173.406322</v>
       </c>
       <c r="O3">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P3">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q3">
         <v>154.552546234228</v>
@@ -635,10 +635,10 @@
         <v>1390.972916108052</v>
       </c>
       <c r="S3">
-        <v>0.47700845137659</v>
+        <v>0.3977916240705493</v>
       </c>
       <c r="T3">
-        <v>0.4770084513765901</v>
+        <v>0.3977916240705493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>8.021466</v>
       </c>
       <c r="I4">
-        <v>0.8002273347603108</v>
+        <v>0.7104886604324562</v>
       </c>
       <c r="J4">
-        <v>0.8002273347603108</v>
+        <v>0.7104886604324562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N4">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q4">
-        <v>78.21595577315</v>
+        <v>88.12487183167602</v>
       </c>
       <c r="R4">
-        <v>703.94360195835</v>
+        <v>793.1238464850842</v>
       </c>
       <c r="S4">
-        <v>0.2414044468717226</v>
+        <v>0.226818235875611</v>
       </c>
       <c r="T4">
-        <v>0.2414044468717226</v>
+        <v>0.226818235875611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>8.021466</v>
       </c>
       <c r="I5">
-        <v>0.8002273347603108</v>
+        <v>0.7104886604324562</v>
       </c>
       <c r="J5">
-        <v>0.8002273347603108</v>
+        <v>0.7104886604324562</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N5">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O5">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P5">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q5">
-        <v>16.219824042054</v>
+        <v>19.2652885833</v>
       </c>
       <c r="R5">
-        <v>145.978416378486</v>
+        <v>173.3875972497</v>
       </c>
       <c r="S5">
-        <v>0.05006059968869983</v>
+        <v>0.04958553333779697</v>
       </c>
       <c r="T5">
-        <v>0.05006059968869984</v>
+        <v>0.04958553333779698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.667506</v>
+        <v>1.089534333333333</v>
       </c>
       <c r="H6">
-        <v>2.002518</v>
+        <v>3.268603</v>
       </c>
       <c r="I6">
-        <v>0.1997726652396891</v>
+        <v>0.2895113395675438</v>
       </c>
       <c r="J6">
-        <v>0.1997726652396891</v>
+        <v>0.2895113395675438</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N6">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q6">
-        <v>2.56843737437</v>
+        <v>5.745859781150667</v>
       </c>
       <c r="R6">
-        <v>23.11593636933</v>
+        <v>51.712738030356</v>
       </c>
       <c r="S6">
-        <v>0.007927183111879767</v>
+        <v>0.01478885304523946</v>
       </c>
       <c r="T6">
-        <v>0.007927183111879767</v>
+        <v>0.01478885304523946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.667506</v>
+        <v>1.089534333333333</v>
       </c>
       <c r="H7">
-        <v>2.002518</v>
+        <v>3.268603</v>
       </c>
       <c r="I7">
-        <v>0.1997726652396891</v>
+        <v>0.2895113395675438</v>
       </c>
       <c r="J7">
-        <v>0.1997726652396891</v>
+        <v>0.2895113395675438</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>173.406322</v>
       </c>
       <c r="O7">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P7">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q7">
-        <v>38.583253457644</v>
+        <v>62.97738047868511</v>
       </c>
       <c r="R7">
-        <v>347.249281118796</v>
+        <v>566.796424308166</v>
       </c>
       <c r="S7">
-        <v>0.1190827225389656</v>
+        <v>0.1620929261324388</v>
       </c>
       <c r="T7">
-        <v>0.1190827225389657</v>
+        <v>0.1620929261324388</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.667506</v>
+        <v>1.089534333333333</v>
       </c>
       <c r="H8">
-        <v>2.002518</v>
+        <v>3.268603</v>
       </c>
       <c r="I8">
-        <v>0.1997726652396891</v>
+        <v>0.2895113395675438</v>
       </c>
       <c r="J8">
-        <v>0.1997726652396891</v>
+        <v>0.2895113395675438</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N8">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q8">
-        <v>19.52621370245</v>
+        <v>35.90929892910246</v>
       </c>
       <c r="R8">
-        <v>175.73592332205</v>
+        <v>323.1836903619221</v>
       </c>
       <c r="S8">
-        <v>0.06026538666880446</v>
+        <v>0.09242434814754931</v>
       </c>
       <c r="T8">
-        <v>0.06026538666880446</v>
+        <v>0.09242434814754932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.667506</v>
+        <v>1.089534333333333</v>
       </c>
       <c r="H9">
-        <v>2.002518</v>
+        <v>3.268603</v>
       </c>
       <c r="I9">
-        <v>0.1997726652396891</v>
+        <v>0.2895113395675438</v>
       </c>
       <c r="J9">
-        <v>0.1997726652396891</v>
+        <v>0.2895113395675438</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N9">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O9">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P9">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q9">
-        <v>4.049196194442</v>
+        <v>7.850258301816668</v>
       </c>
       <c r="R9">
-        <v>36.442765749978</v>
+        <v>70.65232471635001</v>
       </c>
       <c r="S9">
-        <v>0.01249737292003928</v>
+        <v>0.0202052122423162</v>
       </c>
       <c r="T9">
-        <v>0.01249737292003929</v>
+        <v>0.02020521224231621</v>
       </c>
     </row>
   </sheetData>
